--- a/MNP_2018_CamTraps.xlsx
+++ b/MNP_2018_CamTraps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\CamTrap2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -45,21 +45,9 @@
     <t>animal.capture</t>
   </si>
   <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>timeblock</t>
-  </si>
-  <si>
-    <t>night.day</t>
-  </si>
-  <si>
     <t>actual.time</t>
   </si>
   <si>
-    <t>observations</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -87,18 +75,9 @@
     <t>1 = yes, 0 = no</t>
   </si>
   <si>
-    <t>animal id</t>
-  </si>
-  <si>
     <t>jackrabbit, cottontail, lynx, kangaroo rat, mouse etc</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start time from video </t>
-  </si>
-  <si>
     <t>block</t>
   </si>
   <si>
@@ -130,6 +109,24 @@
   </si>
   <si>
     <t>any other obsevations, notes etc</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>animal.id</t>
+  </si>
+  <si>
+    <t>behaviour.time</t>
+  </si>
+  <si>
+    <t>video time stamp of beginning of behaviour</t>
+  </si>
+  <si>
+    <t>duration of behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capture start time from video </t>
   </si>
 </sst>
 </file>
@@ -171,9 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,18 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,31 +480,43 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -514,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,26 +555,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,63 +598,79 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/MNP_2018_CamTraps.xlsx
+++ b/MNP_2018_CamTraps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -120,13 +120,16 @@
     <t>behaviour.time</t>
   </si>
   <si>
-    <t>video time stamp of beginning of behaviour</t>
-  </si>
-  <si>
-    <t>duration of behaviour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capture start time from video </t>
+    <t>behaviour.end.time</t>
+  </si>
+  <si>
+    <t>capture start time from video (i.e. actual time of day)</t>
+  </si>
+  <si>
+    <t>video time stamp of end of behaviour (only fill in the second value ie. "2" not 0:00:02)</t>
+  </si>
+  <si>
+    <t>video time stamp of beginning of behaviour (only need to fill in the second value ie. "2" not 0:00:02)</t>
   </si>
 </sst>
 </file>
@@ -453,20 +456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,21 +504,24 @@
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -528,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,15 +628,15 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
